--- a/validation1.xlsx
+++ b/validation1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redeemerdela/Downloads/CodeX/Student.PredictionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037D2DB-0100-0247-AE57-280B606D03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329CEAAF-BEFC-E440-8001-CD668E6CAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,7 +477,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
